--- a/data/trans_orig/IP07A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A07-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F7B5FF-4540-4341-8B36-8375B7A9A7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BD79807-C575-43E5-B8D2-30D3400C10C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D095EA6B-C697-4946-A482-34D6BC61FC8B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{686F9B92-0354-4218-A308-CB9F1019CF51}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="482">
   <si>
     <t>Menores según frecuencia de sentir que todo le sale mal en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -85,7 +85,7 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>8,49%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -100,1369 +100,1390 @@
     <t>2,85%</t>
   </si>
   <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>24,88%</t>
   </si>
   <si>
     <t>63,64%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
   </si>
   <si>
     <t>61,65%</t>
   </si>
   <si>
-    <t>65,62%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,66%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6690B0-8665-46A6-AFB8-541D0ED58B46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4F71B9-A80D-4F82-B790-F8665C5EC956}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2321,13 +2342,13 @@
         <v>1375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2336,13 +2357,13 @@
         <v>1375</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2378,13 @@
         <v>2056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2375,7 +2396,7 @@
         <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>66</v>
@@ -2438,13 +2459,13 @@
         <v>44399</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2480,13 @@
         <v>56009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -2474,13 +2495,13 @@
         <v>53262</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -2489,13 +2510,13 @@
         <v>109271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2531,13 @@
         <v>156515</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -2525,13 +2546,13 @@
         <v>126435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>423</v>
@@ -2540,13 +2561,13 @@
         <v>282950</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2623,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2614,13 +2635,13 @@
         <v>614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2629,13 +2650,13 @@
         <v>793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2644,13 +2665,13 @@
         <v>1406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2692,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2680,13 +2701,13 @@
         <v>1435</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2695,13 +2716,13 @@
         <v>1435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2737,13 @@
         <v>5723</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -2731,13 +2752,13 @@
         <v>10090</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -2746,13 +2767,13 @@
         <v>15813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2788,13 @@
         <v>15325</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -2782,13 +2803,13 @@
         <v>13460</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -2797,13 +2818,13 @@
         <v>28785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2839,13 @@
         <v>38733</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -2833,13 +2854,13 @@
         <v>40444</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -2848,13 +2869,13 @@
         <v>79176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2943,13 @@
         <v>613</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2937,13 +2958,13 @@
         <v>3469</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2952,13 +2973,13 @@
         <v>4082</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2994,13 @@
         <v>3403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2988,13 +3009,13 @@
         <v>4749</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -3003,13 +3024,13 @@
         <v>8153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3045,13 @@
         <v>32558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>59</v>
@@ -3039,13 +3060,13 @@
         <v>39862</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -3054,13 +3075,13 @@
         <v>72420</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3096,13 @@
         <v>78900</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>120</v>
@@ -3090,13 +3111,13 @@
         <v>79554</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>238</v>
@@ -3105,13 +3126,13 @@
         <v>158454</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3147,13 @@
         <v>230112</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>285</v>
@@ -3141,13 +3162,13 @@
         <v>193378</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>632</v>
@@ -3156,13 +3177,13 @@
         <v>423491</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,7 +3239,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3237,7 +3258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7901E4FA-1EBF-4854-823E-16FE9FB0D33C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB429305-F30A-4C6D-BBE4-0599D7ED499C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3254,7 +3275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3361,13 +3382,13 @@
         <v>923</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3382,7 +3403,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3391,13 +3412,13 @@
         <v>923</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,7 +3439,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3427,13 +3448,13 @@
         <v>1253</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3442,13 +3463,13 @@
         <v>1253</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3484,13 @@
         <v>5682</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3478,13 +3499,13 @@
         <v>3945</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -3493,13 +3514,13 @@
         <v>9627</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3535,13 @@
         <v>10601</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -3529,13 +3550,13 @@
         <v>8950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3544,13 +3565,13 @@
         <v>19551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3586,13 @@
         <v>28647</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -3580,13 +3601,13 @@
         <v>38935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -3595,13 +3616,13 @@
         <v>67581</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3690,13 @@
         <v>1347</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3684,13 +3705,13 @@
         <v>4136</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3699,13 +3720,13 @@
         <v>5482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3741,13 @@
         <v>2656</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -3735,13 +3756,13 @@
         <v>5949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -3750,13 +3771,13 @@
         <v>8604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3792,13 @@
         <v>34676</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -3786,13 +3807,13 @@
         <v>23894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M12" s="7">
         <v>85</v>
@@ -3801,13 +3822,13 @@
         <v>58571</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3843,13 @@
         <v>49186</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -3837,13 +3858,13 @@
         <v>59580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -3852,13 +3873,13 @@
         <v>108766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3894,13 @@
         <v>140858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -3888,13 +3909,13 @@
         <v>112586</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>365</v>
@@ -3903,13 +3924,13 @@
         <v>253444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,7 +3986,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3977,13 +3998,13 @@
         <v>1408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3998,7 +4019,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4007,13 +4028,13 @@
         <v>1408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,7 +4055,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4043,13 +4064,13 @@
         <v>1395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4058,13 +4079,13 @@
         <v>1395</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4100,13 @@
         <v>11869</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -4094,13 +4115,13 @@
         <v>8049</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -4109,13 +4130,13 @@
         <v>19918</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4151,13 @@
         <v>10845</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -4145,13 +4166,13 @@
         <v>18442</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -4160,13 +4181,13 @@
         <v>29288</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4202,13 @@
         <v>33811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -4196,13 +4217,13 @@
         <v>35532</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>98</v>
@@ -4211,13 +4232,13 @@
         <v>69343</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4306,13 @@
         <v>3677</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4300,13 +4321,13 @@
         <v>4136</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -4315,13 +4336,13 @@
         <v>7813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4357,13 @@
         <v>2656</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>292</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -4354,10 +4375,10 @@
         <v>13</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -4366,13 +4387,13 @@
         <v>11252</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4408,13 @@
         <v>52227</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -4402,13 +4423,13 @@
         <v>35888</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M24" s="7">
         <v>129</v>
@@ -4417,13 +4438,13 @@
         <v>88116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4459,13 @@
         <v>70633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H25" s="7">
         <v>121</v>
@@ -4453,13 +4474,13 @@
         <v>86972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -4468,13 +4489,13 @@
         <v>157605</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4510,13 @@
         <v>203315</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>266</v>
@@ -4504,13 +4525,13 @@
         <v>187052</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>558</v>
@@ -4519,13 +4540,13 @@
         <v>390367</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,7 +4602,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4600,7 +4621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EC741A-BAEC-4DEC-8989-06AF5ABB61A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E5C9B-5016-4442-8657-4E15B5DC9B32}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4617,7 +4638,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4730,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4745,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4760,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4796,13 @@
         <v>3834</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4790,13 +4811,13 @@
         <v>2667</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4805,13 +4826,13 @@
         <v>6501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4847,13 @@
         <v>2877</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>335</v>
+        <v>139</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4841,13 +4862,13 @@
         <v>3671</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4856,13 +4877,13 @@
         <v>6549</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4898,13 @@
         <v>8396</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4892,13 +4913,13 @@
         <v>8793</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4907,13 +4928,13 @@
         <v>17189</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4949,13 @@
         <v>21531</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4943,13 +4964,13 @@
         <v>16683</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -4958,13 +4979,13 @@
         <v>38214</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5053,13 @@
         <v>7726</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5047,13 +5068,13 @@
         <v>2806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -5062,13 +5083,13 @@
         <v>10531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5104,13 @@
         <v>8927</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -5098,13 +5119,13 @@
         <v>16695</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -5113,13 +5134,13 @@
         <v>25622</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5155,13 @@
         <v>16349</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -5149,13 +5170,13 @@
         <v>20360</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
@@ -5164,13 +5185,13 @@
         <v>36709</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5206,13 @@
         <v>55004</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5200,13 +5221,13 @@
         <v>52497</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>154</v>
@@ -5215,13 +5236,13 @@
         <v>107501</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5257,13 @@
         <v>157931</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
@@ -5251,13 +5272,13 @@
         <v>158201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>438</v>
@@ -5266,13 +5287,13 @@
         <v>316132</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,7 +5349,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5340,13 +5361,13 @@
         <v>588</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5355,13 +5376,13 @@
         <v>706</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5370,13 +5391,13 @@
         <v>1294</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5412,13 @@
         <v>1972</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5406,13 +5427,13 @@
         <v>2148</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5421,13 +5442,13 @@
         <v>4120</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5463,13 @@
         <v>6701</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5457,13 +5478,13 @@
         <v>9360</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>417</v>
+        <v>203</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -5472,13 +5493,13 @@
         <v>16062</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5514,13 @@
         <v>18749</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -5508,13 +5529,13 @@
         <v>17127</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -5523,13 +5544,13 @@
         <v>35876</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5565,13 @@
         <v>50051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -5559,13 +5580,13 @@
         <v>45057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>130</v>
@@ -5574,13 +5595,13 @@
         <v>95108</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>358</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5669,13 @@
         <v>8313</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5663,13 +5684,13 @@
         <v>3512</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5678,13 +5699,13 @@
         <v>11826</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>442</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5720,13 @@
         <v>14734</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -5714,13 +5735,13 @@
         <v>21509</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M23" s="7">
         <v>51</v>
@@ -5729,13 +5750,13 @@
         <v>36243</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5771,13 @@
         <v>25927</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>181</v>
+        <v>459</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>460</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -5765,13 +5786,13 @@
         <v>33392</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -5780,13 +5801,13 @@
         <v>59319</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>458</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5822,13 @@
         <v>82149</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="H25" s="7">
         <v>113</v>
@@ -5816,13 +5837,13 @@
         <v>78417</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M25" s="7">
         <v>229</v>
@@ -5831,13 +5852,13 @@
         <v>160566</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>466</v>
+        <v>339</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5873,13 @@
         <v>229513</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H26" s="7">
         <v>311</v>
@@ -5867,13 +5888,13 @@
         <v>219942</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>281</v>
+        <v>477</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M26" s="7">
         <v>622</v>
@@ -5882,13 +5903,13 @@
         <v>449455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,7 +5965,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BD79807-C575-43E5-B8D2-30D3400C10C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3196937-AD6E-4B53-9638-1A722FFE27E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{686F9B92-0354-4218-A308-CB9F1019CF51}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{85C82975-7460-48D5-A895-D29B2467AC1C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="485">
   <si>
     <t>Menores según frecuencia de sentir que todo le sale mal en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1417 +73,1426 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>2,57%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>9,02%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
     <t>1,33%</t>
   </si>
   <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>6,76%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
   </si>
   <si>
     <t>67,68%</t>
   </si>
   <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4F71B9-A80D-4F82-B790-F8665C5EC956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE32D16-C3F9-4D44-96CE-D66FAC1B4EB3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2013,10 +2022,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2028,16 +2037,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2052,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -2067,13 +2076,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1347</v>
+        <v>1286</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
@@ -2082,13 +2091,13 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>1286</v>
+        <v>1347</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -2115,10 +2124,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>3453</v>
+        <v>8756</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -2130,10 +2139,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>8756</v>
+        <v>3453</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2166,10 +2175,10 @@
         <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>7566</v>
+        <v>12832</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -2181,10 +2190,10 @@
         <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>12832</v>
+        <v>7566</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2217,10 +2226,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7">
-        <v>34864</v>
+        <v>26500</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -2232,10 +2241,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I8" s="7">
-        <v>26500</v>
+        <v>34864</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -2268,25 +2277,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50674</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50674</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -2321,34 +2330,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1375</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2357,13 +2366,13 @@
         <v>1375</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,31 +2384,31 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>2056</v>
+        <v>2029</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2029</v>
+        <v>2056</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2408,13 +2417,13 @@
         <v>4085</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,34 +2432,34 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>21016</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="7">
         <v>35</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23383</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>21016</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -2459,13 +2468,13 @@
         <v>44399</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,34 +2483,34 @@
         <v>36</v>
       </c>
       <c r="C13" s="7">
+        <v>80</v>
+      </c>
+      <c r="D13" s="7">
+        <v>53262</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="7">
         <v>85</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>56009</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="7">
-        <v>80</v>
-      </c>
-      <c r="I13" s="7">
-        <v>53262</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -2510,13 +2519,13 @@
         <v>109271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,34 +2534,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
+        <v>187</v>
+      </c>
+      <c r="D14" s="7">
+        <v>126435</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7">
         <v>236</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>156515</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H14" s="7">
-        <v>187</v>
-      </c>
-      <c r="I14" s="7">
-        <v>126435</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>423</v>
@@ -2561,13 +2570,13 @@
         <v>282950</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,25 +2585,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>305</v>
+      </c>
+      <c r="D15" s="7">
+        <v>204117</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7">
         <v>359</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237963</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>305</v>
-      </c>
-      <c r="I15" s="7">
-        <v>204117</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -2623,7 +2632,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2632,31 +2641,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>614</v>
+        <v>793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>793</v>
+        <v>614</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2665,13 +2674,13 @@
         <v>1406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,34 +2689,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1435</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1435</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2716,13 +2725,13 @@
         <v>1435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,34 +2740,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10090</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5723</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="H18" s="7">
-        <v>13</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10090</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -2767,13 +2776,13 @@
         <v>15813</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,34 +2791,34 @@
         <v>36</v>
       </c>
       <c r="C19" s="7">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7">
+        <v>13460</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="7">
         <v>22</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>15325</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="7">
-        <v>21</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13460</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -2818,13 +2827,13 @@
         <v>28785</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,31 +2845,31 @@
         <v>58</v>
       </c>
       <c r="D20" s="7">
-        <v>38733</v>
+        <v>40444</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
       </c>
       <c r="I20" s="7">
-        <v>40444</v>
+        <v>38733</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -2869,13 +2878,13 @@
         <v>79176</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,25 +2893,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66222</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60394</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66222</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -2937,34 +2946,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3469</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>613</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>3469</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2973,13 +2982,13 @@
         <v>4082</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,34 +2997,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4749</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>3403</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="7">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4749</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -3024,13 +3033,13 @@
         <v>8153</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,34 +3048,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7">
+        <v>39862</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="7">
         <v>48</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>32558</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="7">
-        <v>59</v>
-      </c>
-      <c r="I24" s="7">
-        <v>39862</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -3075,13 +3084,13 @@
         <v>72420</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,34 +3099,34 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
+        <v>120</v>
+      </c>
+      <c r="D25" s="7">
+        <v>79554</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="7">
         <v>118</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>78900</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H25" s="7">
-        <v>120</v>
-      </c>
-      <c r="I25" s="7">
-        <v>79554</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>238</v>
@@ -3126,13 +3135,13 @@
         <v>158454</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,34 +3150,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>285</v>
+      </c>
+      <c r="D26" s="7">
+        <v>193378</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="7">
         <v>347</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>230112</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H26" s="7">
-        <v>285</v>
-      </c>
-      <c r="I26" s="7">
-        <v>193378</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>632</v>
@@ -3177,13 +3186,13 @@
         <v>423491</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,25 +3201,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>476</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321012</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>345587</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>476</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321012</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -3239,7 +3248,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3258,7 +3267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB429305-F30A-4C6D-BBE4-0599D7ED499C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C11BD9-D2EA-41B1-A5E6-87CBDB0E2CAF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3275,7 +3284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3376,34 +3385,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>923</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3412,10 +3421,10 @@
         <v>923</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>182</v>
@@ -3427,31 +3436,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1253</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1253</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>185</v>
@@ -3466,7 +3475,7 @@
         <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>187</v>
@@ -3478,10 +3487,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>5682</v>
+        <v>3945</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>188</v>
@@ -3493,10 +3502,10 @@
         <v>190</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>3945</v>
+        <v>5682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>191</v>
@@ -3529,10 +3538,10 @@
         <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>10601</v>
+        <v>8950</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>197</v>
@@ -3544,10 +3553,10 @@
         <v>199</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>8950</v>
+        <v>10601</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>200</v>
@@ -3580,10 +3589,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7">
-        <v>28647</v>
+        <v>38935</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>206</v>
@@ -3595,10 +3604,10 @@
         <v>208</v>
       </c>
       <c r="H8" s="7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I8" s="7">
-        <v>38935</v>
+        <v>28647</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>209</v>
@@ -3631,25 +3640,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53083</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -3684,34 +3693,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>1347</v>
+        <v>4136</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>216</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>4136</v>
+        <v>1347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -3720,13 +3729,13 @@
         <v>5482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,34 +3744,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5949</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>2656</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5949</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -3771,13 +3780,13 @@
         <v>8604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,34 +3795,34 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7">
+        <v>23894</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="7">
         <v>51</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>34676</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H12" s="7">
-        <v>34</v>
-      </c>
-      <c r="I12" s="7">
-        <v>23894</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>85</v>
@@ -3822,13 +3831,13 @@
         <v>58571</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,34 +3846,34 @@
         <v>36</v>
       </c>
       <c r="C13" s="7">
+        <v>84</v>
+      </c>
+      <c r="D13" s="7">
+        <v>59580</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="7">
         <v>74</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>49186</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H13" s="7">
-        <v>84</v>
-      </c>
-      <c r="I13" s="7">
-        <v>59580</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -3873,13 +3882,13 @@
         <v>108766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,34 +3897,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
+        <v>162</v>
+      </c>
+      <c r="D14" s="7">
+        <v>112586</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="7">
         <v>203</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>140858</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H14" s="7">
-        <v>162</v>
-      </c>
-      <c r="I14" s="7">
-        <v>112586</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>365</v>
@@ -3924,13 +3933,13 @@
         <v>253444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,25 +3948,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>295</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206144</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7">
         <v>334</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>228723</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>295</v>
-      </c>
-      <c r="I15" s="7">
-        <v>206144</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -3986,40 +3995,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1408</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4028,13 +4037,13 @@
         <v>1408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,34 +4052,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1395</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4079,13 +4088,13 @@
         <v>1395</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,34 +4103,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8049</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" s="7">
         <v>17</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>11869</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8049</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -4130,13 +4139,13 @@
         <v>19918</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,34 +4154,34 @@
         <v>36</v>
       </c>
       <c r="C19" s="7">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7">
+        <v>18442</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>10845</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="7">
-        <v>25</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18442</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -4181,13 +4190,13 @@
         <v>29288</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,31 +4208,31 @@
         <v>49</v>
       </c>
       <c r="D20" s="7">
-        <v>33811</v>
+        <v>35532</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
       </c>
       <c r="I20" s="7">
-        <v>35532</v>
+        <v>33811</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
         <v>98</v>
@@ -4232,13 +4241,13 @@
         <v>69343</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,25 +4256,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -4300,34 +4309,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4136</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>3677</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <v>6</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4136</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -4336,13 +4345,13 @@
         <v>7813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,34 +4360,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7">
+        <v>8597</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" s="7">
         <v>4</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>2656</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="7">
-        <v>13</v>
-      </c>
-      <c r="I23" s="7">
-        <v>8597</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -4387,13 +4396,13 @@
         <v>11252</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>300</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,34 +4411,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7">
+        <v>35888</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H24" s="7">
         <v>77</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>52227</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H24" s="7">
-        <v>52</v>
-      </c>
-      <c r="I24" s="7">
-        <v>35888</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>129</v>
@@ -4438,13 +4447,13 @@
         <v>88116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,34 +4462,34 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
+        <v>121</v>
+      </c>
+      <c r="D25" s="7">
+        <v>86972</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H25" s="7">
         <v>106</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>70633</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H25" s="7">
-        <v>121</v>
-      </c>
-      <c r="I25" s="7">
-        <v>86972</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -4489,13 +4498,13 @@
         <v>157605</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,34 +4513,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>266</v>
+      </c>
+      <c r="D26" s="7">
+        <v>187052</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H26" s="7">
         <v>292</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>203315</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H26" s="7">
-        <v>266</v>
-      </c>
-      <c r="I26" s="7">
-        <v>187052</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>558</v>
@@ -4540,13 +4549,13 @@
         <v>390367</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,25 +4564,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>458</v>
+      </c>
+      <c r="D27" s="7">
+        <v>322645</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>484</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>332508</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>458</v>
-      </c>
-      <c r="I27" s="7">
-        <v>322645</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -4602,7 +4611,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4621,7 +4630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E5C9B-5016-4442-8657-4E15B5DC9B32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF70E479-23BF-420F-A237-EAE436535BB6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4638,7 +4647,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4745,13 +4754,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4760,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4775,13 +4784,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,34 +4799,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2667</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>3834</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2667</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4826,13 +4835,13 @@
         <v>6501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,34 +4850,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3671</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2877</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3671</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>341</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4877,13 +4886,13 @@
         <v>6549</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,31 +4904,31 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>8396</v>
+        <v>8793</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>119</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>8793</v>
+        <v>8396</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4928,13 +4937,13 @@
         <v>17189</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,34 +4952,34 @@
         <v>46</v>
       </c>
       <c r="C8" s="7">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7">
+        <v>16683</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H8" s="7">
         <v>30</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>21531</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H8" s="7">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7">
-        <v>16683</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -4979,13 +4988,13 @@
         <v>38214</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,25 +5003,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -5047,34 +5056,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2806</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>7726</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2806</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -5083,13 +5092,13 @@
         <v>10531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,34 +5107,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7">
+        <v>16695</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="7">
         <v>12</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>8927</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16695</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -5134,13 +5143,13 @@
         <v>25622</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,34 +5158,34 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7">
+        <v>20360</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H12" s="7">
         <v>23</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>16349</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H12" s="7">
-        <v>29</v>
-      </c>
-      <c r="I12" s="7">
-        <v>20360</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M12" s="7">
         <v>52</v>
@@ -5185,13 +5194,13 @@
         <v>36709</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,31 +5212,31 @@
         <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>55004</v>
+        <v>52497</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
       </c>
       <c r="I13" s="7">
-        <v>52497</v>
+        <v>55004</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>154</v>
@@ -5236,13 +5245,13 @@
         <v>107501</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,34 +5260,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
+        <v>225</v>
+      </c>
+      <c r="D14" s="7">
+        <v>158201</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H14" s="7">
         <v>213</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>157931</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H14" s="7">
-        <v>225</v>
-      </c>
-      <c r="I14" s="7">
-        <v>158201</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>438</v>
@@ -5287,13 +5296,13 @@
         <v>316132</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,25 +5311,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>360</v>
+      </c>
+      <c r="D15" s="7">
+        <v>250559</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7">
         <v>336</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>245937</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>360</v>
-      </c>
-      <c r="I15" s="7">
-        <v>250559</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -5349,7 +5358,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5358,31 +5367,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>588</v>
+        <v>706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>706</v>
+        <v>588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5391,13 +5400,13 @@
         <v>1294</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,31 +5418,31 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>1972</v>
+        <v>2148</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>2148</v>
+        <v>1972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5442,13 +5451,13 @@
         <v>4120</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,34 +5466,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9360</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H18" s="7">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>6701</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9360</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -5493,13 +5502,13 @@
         <v>16062</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,34 +5517,34 @@
         <v>36</v>
       </c>
       <c r="C19" s="7">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7">
+        <v>17127</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H19" s="7">
         <v>27</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>18749</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17127</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -5544,13 +5553,13 @@
         <v>35876</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,34 +5568,34 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
+        <v>62</v>
+      </c>
+      <c r="D20" s="7">
+        <v>45057</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H20" s="7">
         <v>68</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>50051</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H20" s="7">
-        <v>62</v>
-      </c>
-      <c r="I20" s="7">
-        <v>45057</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>130</v>
@@ -5595,13 +5604,13 @@
         <v>95108</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,25 +5619,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -5663,34 +5672,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3512</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H22" s="7">
         <v>12</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>8313</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H22" s="7">
-        <v>6</v>
-      </c>
-      <c r="I22" s="7">
-        <v>3512</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5699,13 +5708,13 @@
         <v>11826</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>14</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,34 +5723,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <v>21509</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H23" s="7">
         <v>20</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>14734</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="H23" s="7">
-        <v>31</v>
-      </c>
-      <c r="I23" s="7">
-        <v>21509</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M23" s="7">
         <v>51</v>
@@ -5750,13 +5759,13 @@
         <v>36243</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>457</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,34 +5774,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7">
+        <v>33392</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H24" s="7">
         <v>36</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>25927</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H24" s="7">
-        <v>49</v>
-      </c>
-      <c r="I24" s="7">
-        <v>33392</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>461</v>
+        <v>72</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -5801,13 +5810,13 @@
         <v>59319</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>31</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,34 +5825,34 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
+        <v>113</v>
+      </c>
+      <c r="D25" s="7">
+        <v>78417</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H25" s="7">
         <v>116</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>82149</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="H25" s="7">
-        <v>113</v>
-      </c>
-      <c r="I25" s="7">
-        <v>78417</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M25" s="7">
         <v>229</v>
@@ -5852,13 +5861,13 @@
         <v>160566</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>476</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>472</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,31 +5879,31 @@
         <v>311</v>
       </c>
       <c r="D26" s="7">
-        <v>229513</v>
+        <v>219942</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H26" s="7">
         <v>311</v>
       </c>
       <c r="I26" s="7">
-        <v>219942</v>
+        <v>229513</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>476</v>
+        <v>49</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M26" s="7">
         <v>622</v>
@@ -5903,13 +5912,13 @@
         <v>449455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,25 +5927,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>510</v>
+      </c>
+      <c r="D27" s="7">
+        <v>356772</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>495</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>360636</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>510</v>
-      </c>
-      <c r="I27" s="7">
-        <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -5965,7 +5974,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
